--- a/forturne_df.xlsx
+++ b/forturne_df.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$D$501</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="1082">
   <si>
     <t>Rank</t>
   </si>
@@ -3198,6 +3198,72 @@
   </si>
   <si>
     <t>Operating Revenue</t>
+  </si>
+  <si>
+    <t>Imputation</t>
+  </si>
+  <si>
+    <t>Model_name</t>
+  </si>
+  <si>
+    <t>Net Debt 04 2023</t>
+  </si>
+  <si>
+    <t>Total_Debt_Q4_2023</t>
+  </si>
+  <si>
+    <t>Invested_Capital_04_2023</t>
+  </si>
+  <si>
+    <t>Net_Tangible_Assets_04_2023</t>
+  </si>
+  <si>
+    <t>Total_Equity_Gross_Minority_Interest_04_2023</t>
+  </si>
+  <si>
+    <t>Current_Liabilities_04_2023</t>
+  </si>
+  <si>
+    <t>Current_Debt_Q4_2023</t>
+  </si>
+  <si>
+    <t>Total_Assets_04_2023</t>
+  </si>
+  <si>
+    <t>Current Assets_04_2023</t>
+  </si>
+  <si>
+    <t>Repayment_Of_Debt_04_2023</t>
+  </si>
+  <si>
+    <t>Issuance_Of_Debt_04_2023</t>
+  </si>
+  <si>
+    <t>End_Cash_Position_Q4_2023</t>
+  </si>
+  <si>
+    <t>Changes_in_Cash_04_2023</t>
+  </si>
+  <si>
+    <t>Financing Cash_Flow_Q4_2023</t>
+  </si>
+  <si>
+    <t>Cash_Flow_From_Continuing_Investing_Activities_04_2023</t>
+  </si>
+  <si>
+    <t>Cash_Flow_From_Continuing_Operating_Activities_Q4_2023</t>
+  </si>
+  <si>
+    <t>Change_in_Working_Capital_04_2023</t>
+  </si>
+  <si>
+    <t>Normalized_Income 04 2023</t>
+  </si>
+  <si>
+    <t>Net_Income_Q4_2023</t>
+  </si>
+  <si>
+    <t>Operating Revenue_04_2023</t>
   </si>
 </sst>
 </file>
@@ -3207,8 +3273,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3242,10 +3316,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10514,10 +10590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10525,20 +10601,28 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1036</v>
       </c>
@@ -10549,7 +10633,7 @@
         <v>256.85072000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1037</v>
       </c>
@@ -10559,8 +10643,14 @@
       <c r="C3" s="1">
         <v>-4.5860300000000001E-9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>62849279158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1037</v>
       </c>
@@ -10570,8 +10660,14 @@
       <c r="C4" s="1">
         <v>8.6273399999999993E-9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>74184047158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1037</v>
       </c>
@@ -10581,8 +10677,14 @@
       <c r="C5" s="1">
         <v>-3.9769499999999996E-9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>103111634593</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1037</v>
       </c>
@@ -10592,8 +10694,14 @@
       <c r="C6" s="1">
         <v>1.7591099999999999E-9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>11766972994</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1037</v>
       </c>
@@ -10603,8 +10711,14 @@
       <c r="C7" s="1">
         <v>3.4437399999999999E-9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>33588976107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1037</v>
       </c>
@@ -10614,8 +10728,14 @@
       <c r="C8" s="1">
         <v>4.9579999999999996E-9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>18502439868</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1037</v>
       </c>
@@ -10625,8 +10745,14 @@
       <c r="C9" s="1">
         <v>-3.5791700000000002E-9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>3832211329</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1037</v>
       </c>
@@ -10636,8 +10762,14 @@
       <c r="C10" s="1">
         <v>-2.3047999999999999E-10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>212728759921</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1037</v>
       </c>
@@ -10647,8 +10779,14 @@
       <c r="C11" s="1">
         <v>-3.5916500000000001E-9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>21675975178</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1047</v>
       </c>
@@ -10658,8 +10796,14 @@
       <c r="C12" s="1">
         <v>-3.4852E-10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>-3586431917</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1047</v>
       </c>
@@ -10669,8 +10813,14 @@
       <c r="C13" s="1">
         <v>-1.5727199999999999E-9</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>4391041895</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1047</v>
       </c>
@@ -10680,8 +10830,14 @@
       <c r="C14" s="1">
         <v>-2.5256600000000001E-9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>16240110751</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1047</v>
       </c>
@@ -10691,8 +10847,14 @@
       <c r="C15" s="1">
         <v>4.1915730000000003E-8</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>6087412</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1047</v>
       </c>
@@ -10702,8 +10864,14 @@
       <c r="C16" s="1">
         <v>-4.8644399999999997E-8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>-1173549966</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1047</v>
       </c>
@@ -10713,8 +10881,14 @@
       <c r="C17" s="1">
         <v>-4.11135E-8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>-1454936723</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1047</v>
       </c>
@@ -10724,8 +10898,14 @@
       <c r="C18" s="1">
         <v>-5.6010700000000001E-8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>2692903053</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1047</v>
       </c>
@@ -10735,8 +10915,14 @@
       <c r="C19" s="1">
         <v>1.104395E-8</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>-42673787</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1056</v>
       </c>
@@ -10746,8 +10932,14 @@
       <c r="C20" s="1">
         <v>4.7284890000000001E-8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>1462724039</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1056</v>
       </c>
@@ -10757,8 +10949,14 @@
       <c r="C21" s="1">
         <v>2.9807100000000002E-8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>1384366740</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1056</v>
       </c>
@@ -10768,8 +10966,15 @@
       <c r="C22" s="1">
         <v>6.0241599999999996E-9</v>
       </c>
+      <c r="D22" s="3">
+        <v>15374492288</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1081</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>